--- a/medicine/Sexualité et sexologie/Le_Journal_intime_d'une_nymphomane/Le_Journal_intime_d'une_nymphomane.xlsx
+++ b/medicine/Sexualité et sexologie/Le_Journal_intime_d'une_nymphomane/Le_Journal_intime_d'une_nymphomane.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Le_Journal_intime_d%27une_nymphomane</t>
+          <t>Le_Journal_intime_d'une_nymphomane</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Journal intime d'une nymphomane est un film érotique français réalisé par Jesús Franco et sorti en 1973.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Le_Journal_intime_d%27une_nymphomane</t>
+          <t>Le_Journal_intime_d'une_nymphomane</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Ortiz est entraîné par une prostituée, Linda Vargas, qui, après une nuit de sexe, se suicide pendant le sommeil de son client. Accusé du meurtre, Ortiz est arrêté et emprisonné. L'enquête faite par Rosa Ortiz, son épouse, retrace la vie de Linda Vargas et l'histoire de sa déchéance. Au fil de cette enquête, les raisons de son suicide sont mises en évidence et maintiennent la thèse du désir d'accuser le suspect aux yeux de la justice.
 </t>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Le_Journal_intime_d%27une_nymphomane</t>
+          <t>Le_Journal_intime_d'une_nymphomane</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,7 +556,9 @@
           <t>Fiche technique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Titre : Le Journal intime d'une nymphomane ; Les Inassouvies 77 (titre secondaire)[réf. nécessaire]
 Réalisation : Jesús Franco (sous le pseudonyme de Clifford Brown)
@@ -563,7 +579,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Le_Journal_intime_d%27une_nymphomane</t>
+          <t>Le_Journal_intime_d'une_nymphomane</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -581,7 +597,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Mona Proust : Linda Vargas
 Jacqueline Laurent : Rosa Ortiz
